--- a/pred_ohlcv/54_21/2020-01-20 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ETZ ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>-109248.1438364174</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-109139.0072364174</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-109567.0893364174</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-109611.0893364174</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-109567.0893364174</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-101722.9883364174</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-109391.4504364173</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-109280.4504364173</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-27558.6062292378</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-27558.6062292378</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-27558.6062292378</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-30758.6062292378</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-30715.6062292378</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>109175.5487707622</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1223767.543122058</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1298656.673022058</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 ETZ ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-109139.0072364174</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-109567.0893364174</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-109611.0893364174</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-109391.4504364173</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-109280.4504364173</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-27558.6062292378</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-27558.6062292378</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-27558.6062292378</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-30758.6062292378</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-30715.6062292378</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
